--- a/Apps/estoque_mercado_livre/Data/Urls.xlsx
+++ b/Apps/estoque_mercado_livre/Data/Urls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\FIVE-C\Automation\Urls\Streamlit-Gopro_estoque_ml\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\FIVE-C\Streamlit\Apps\estoque_mercado_livre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A7B700-6831-4B83-95F8-EF51B748567A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88515CA2-BB9D-499E-A302-B39680A061C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17415" yWindow="0" windowWidth="19200" windowHeight="15450" xr2:uid="{CE9DE5A0-1E27-407E-8DBD-061DE87DE0A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CE9DE5A0-1E27-407E-8DBD-061DE87DE0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>https://produto.mercadolivre.com.br/MLB-1685297927-gopro-hero-9-black-camera-original-nfe-_JM</t>
   </si>
@@ -382,6 +382,78 @@
   </si>
   <si>
     <t>https://produto.mercadolivre.com.br/MLB-1926055927-gopro-max-360-prova-dagua-166mp-56k-com-nf-garantia-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2025435088-camera-gopro-hero-10-black-53k604k12027k240-video-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2025604887-camera-gopro-hero-10-black-53k604k12027k240-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2028027180-gopro-hero-10-black-cmera-pronta-entrega-nfe-c-garantia-br-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2028042105-camera-gopro-hero-10-black-pronta-entrega-nfe-c-garantia-br-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2028242864-camera-gopro-hero-10-black-53-k-23-mp-com-nfe-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2028726974-camera-gopro-hero-10-black-pronta-entrega-nfe-c-garantia-br-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2028886620-camera-digital-gopro-hero-10-black-carto-extreme-64-gb-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2029346233-camera-digital-gopro-hero-10-black-sandisk-extreme-64-gb-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2018153279-cmera-gopro-hero-10-black-53-k-23-mp-com-nf-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2018175954-cmera-gopro-hero-10-black-23-mp-53-k-com-nf-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2025802863-cmera-gopro-hero-10-black-pronta-entrega-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2025813614-cmera-gopro-hero-10-black-pronta-entrega-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2025827609-cmera-gopro-hero-10-black-pronta-entrega-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2025833475-cmera-gopro-hero-10-black-pronta-entrega-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1710270212-camera-gopro-hero-8-black-carto-sandisk-extreme-64-gb-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1927454565-cmera-gopro-hero8-4k-chdhx-801-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2007758213-cmera-gopro-kit-de-hero8-4k-chdrb-801-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2007766313-cmera-gopro-kit-de-hero8-4k-chdrb-801-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2007786491-cmera-gopro-kit-de-hero8-4k-chdrb-801-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2007797829-cmera-gopro-kit-de-hero8-4k-chdrb-801-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1743114772-gopro-hero-9-black-com-nota-fiscal-e-garantia-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1950368757-cmera-digital-gopro-hero-9-black-carto-extreme-64-gb-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1962261863-cmera-digital-gopro-hero-9-black-sandisk-extreme-64-gb-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1870605838-cmera-gopro-max-56k-chdhz-201-ntscpal-black-_JM</t>
   </si>
 </sst>
 </file>
@@ -480,7 +552,27 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -821,7 +913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD55D8E-EAA2-4C36-95CE-88C48AA10AED}">
-  <dimension ref="A1:A116"/>
+  <dimension ref="A1:A140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,106 +1499,251 @@
         <v>115</v>
       </c>
     </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A86">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A140">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A90">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A116">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" xr:uid="{5631F918-E5E8-4A43-8F7A-1BF52F9B0279}"/>
-    <hyperlink ref="A27" r:id="rId2" xr:uid="{1C771288-3F4A-479F-90A5-8852EC166200}"/>
-    <hyperlink ref="A47" r:id="rId3" xr:uid="{A838628E-B03A-4F8C-A9F5-F028B14A759F}"/>
-    <hyperlink ref="A21" r:id="rId4" xr:uid="{62E16471-5B03-422D-9843-E6C9AADED28C}"/>
-    <hyperlink ref="A48" r:id="rId5" xr:uid="{0810FE89-74AA-4E84-A322-1B4A6FC96AAD}"/>
-    <hyperlink ref="A36" r:id="rId6" xr:uid="{8D169CE8-FDD5-4D42-AD97-3EBFCE6D8B49}"/>
-    <hyperlink ref="A66" r:id="rId7" xr:uid="{78D495DD-FBB0-45BA-89C6-B21DCCC4460F}"/>
-    <hyperlink ref="A67" r:id="rId8" xr:uid="{C0E9182C-94DD-49AA-8607-F65E9A654183}"/>
-    <hyperlink ref="A68" r:id="rId9" xr:uid="{5E13B7E1-635B-46A6-9021-6CE444542DD4}"/>
-    <hyperlink ref="A69" r:id="rId10" xr:uid="{AFDD43C9-9476-4058-9BBA-4036AA02F3AB}"/>
-    <hyperlink ref="A2" r:id="rId11" xr:uid="{0F31AA88-62A1-44E4-85CA-5CAE278B27C4}"/>
-    <hyperlink ref="A3" r:id="rId12" xr:uid="{74D4AF62-BC8D-40C9-9510-C6F5EFC233CC}"/>
-    <hyperlink ref="A70" r:id="rId13" xr:uid="{86D8803B-6231-441F-B0AD-1AE3EF488ACF}"/>
-    <hyperlink ref="A37" r:id="rId14" xr:uid="{E9CDB2C5-89B6-415D-9B32-A340209C5664}"/>
-    <hyperlink ref="A49" r:id="rId15" xr:uid="{09FF7466-1C4F-46F8-B36D-D65C6E12D26A}"/>
-    <hyperlink ref="A71" r:id="rId16" xr:uid="{57E2DA0E-9BB5-4453-8F21-34517911FEB2}"/>
-    <hyperlink ref="A50" r:id="rId17" xr:uid="{8CBA7B34-60FC-467F-AA97-A7426F8D2F69}"/>
-    <hyperlink ref="A51" r:id="rId18" xr:uid="{B82F7A9F-2AD6-43D1-A7B1-F415DD51CC2F}"/>
-    <hyperlink ref="A72" r:id="rId19" xr:uid="{69D4AF30-2A01-4E67-AFDE-244DCD1EEA89}"/>
-    <hyperlink ref="A52" r:id="rId20" xr:uid="{129B9FD5-B3AA-405A-A046-84C4EB4F6DA6}"/>
-    <hyperlink ref="A28" r:id="rId21" xr:uid="{1FC2DD9B-646B-4540-BAFF-D4FEFDE8B34B}"/>
-    <hyperlink ref="A29" r:id="rId22" xr:uid="{46AD4BA7-CDE6-409B-BCDD-92770B229036}"/>
-    <hyperlink ref="A73" r:id="rId23" xr:uid="{F90BB74A-377C-43DE-95F9-62695D02DA19}"/>
-    <hyperlink ref="A74" r:id="rId24" xr:uid="{8571E959-AF6A-4A6E-B953-91D84BCE4711}"/>
-    <hyperlink ref="A58" r:id="rId25" xr:uid="{74203FCC-C3A4-4423-982F-0967616795D8}"/>
-    <hyperlink ref="A75" r:id="rId26" xr:uid="{D63E3964-C7E7-4C23-A1F2-8ADAA45DE272}"/>
-    <hyperlink ref="A32" r:id="rId27" xr:uid="{D6490496-508B-43EE-B769-D6F4C14A78B7}"/>
-    <hyperlink ref="A53" r:id="rId28" xr:uid="{68DB9D78-D2BB-4F1A-A6CB-E85A0738B85E}"/>
-    <hyperlink ref="A38" r:id="rId29" xr:uid="{5241A711-50A7-4172-9F5F-9352154622CF}"/>
-    <hyperlink ref="A39" r:id="rId30" xr:uid="{239DAFC2-CCD1-4BBA-B5DD-1DC262260A0D}"/>
-    <hyperlink ref="A40" r:id="rId31" xr:uid="{DEC21F1F-205F-4A5B-A04E-6764A4586A4E}"/>
-    <hyperlink ref="A22" r:id="rId32" xr:uid="{81FDF692-198C-4D7A-B7D1-A88FE6ECFAEB}"/>
-    <hyperlink ref="A65" r:id="rId33" xr:uid="{111BFD06-286F-4C26-BDBA-D95311EA273E}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{66C42998-6BF7-4DA0-A0F2-5ED28A48FC88}"/>
-    <hyperlink ref="A30" r:id="rId35" xr:uid="{801BC708-DBBB-41CB-AD35-5C3CCFB4D552}"/>
-    <hyperlink ref="A31" r:id="rId36" xr:uid="{178FAF85-8F67-4C08-82A0-3F95F63A486D}"/>
-    <hyperlink ref="A33" r:id="rId37" xr:uid="{9FAE9D0B-27DC-456A-AEAF-F33472B57EBD}"/>
-    <hyperlink ref="A10" r:id="rId38" xr:uid="{CF1B4C5F-C76D-4CB9-8DDB-E09112DC73CF}"/>
-    <hyperlink ref="A11" r:id="rId39" xr:uid="{C8489428-DBDB-43C7-8D7A-8460B36D15DE}"/>
-    <hyperlink ref="A12" r:id="rId40" xr:uid="{2E5AA65D-2920-4199-BCD0-E6646171B928}"/>
-    <hyperlink ref="A13" r:id="rId41" xr:uid="{CAC6F07B-FB0D-4EE8-A38E-C9B0A8ECD7F6}"/>
-    <hyperlink ref="A14" r:id="rId42" xr:uid="{FDDE6B47-ED0A-4514-A47B-EE0379454E9C}"/>
-    <hyperlink ref="A15" r:id="rId43" xr:uid="{AA63F08A-EACD-4AB5-9388-3F8B5670F03F}"/>
-    <hyperlink ref="A16" r:id="rId44" xr:uid="{39057F90-F292-4FC0-B570-E05C71022741}"/>
-    <hyperlink ref="A17" r:id="rId45" xr:uid="{23AE30AE-D7BB-47B1-AF61-A03795BE0A28}"/>
-    <hyperlink ref="A18" r:id="rId46" xr:uid="{DE9AF789-5885-4409-BE45-AAB37DEBF3B4}"/>
-    <hyperlink ref="A76" r:id="rId47" xr:uid="{46762773-FDB6-4EB1-B72D-FD1FFF0D0D56}"/>
-    <hyperlink ref="A77" r:id="rId48" xr:uid="{20C208FB-01DE-42D1-8392-EC887A0DE466}"/>
-    <hyperlink ref="A23" r:id="rId49" xr:uid="{D7487A28-E2D5-4A2C-8724-61EB4865A075}"/>
-    <hyperlink ref="A24" r:id="rId50" xr:uid="{FFBF133F-A2A4-4871-AF60-FE2FA20A2FEC}"/>
-    <hyperlink ref="A54" r:id="rId51" xr:uid="{B3CCE403-9734-4A17-9A6D-68A96273C09F}"/>
-    <hyperlink ref="A4" r:id="rId52" xr:uid="{5A61B83C-A1A3-4F28-8945-759389D0C34A}"/>
-    <hyperlink ref="A78" r:id="rId53" xr:uid="{02B23FEA-15BA-4EFC-B4E6-A009E24BA52E}"/>
-    <hyperlink ref="A79" r:id="rId54" xr:uid="{E2F2E05D-8167-4258-BA91-DE8E9248A1A6}"/>
-    <hyperlink ref="A80" r:id="rId55" xr:uid="{5C41A1BA-5B4A-4CFF-9FD7-9FB64873DF38}"/>
-    <hyperlink ref="A5" r:id="rId56" xr:uid="{FC608CAA-B8A4-42E7-BBB3-486CE7C786C0}"/>
-    <hyperlink ref="A81" r:id="rId57" xr:uid="{D7DFFFF4-7245-403E-A3AB-B4374D52D108}"/>
-    <hyperlink ref="A82" r:id="rId58" xr:uid="{A2602B94-B3CC-4F66-A71A-E91DAE89D4DB}"/>
-    <hyperlink ref="A41" r:id="rId59" xr:uid="{6E77584B-997D-4A16-A078-71D944F38646}"/>
-    <hyperlink ref="A6" r:id="rId60" xr:uid="{53DE00EF-9298-49E2-93E7-5B4DA8A1F368}"/>
-    <hyperlink ref="A7" r:id="rId61" xr:uid="{5AF3EC02-B927-4B81-98E6-5ADCDB1F5058}"/>
-    <hyperlink ref="A8" r:id="rId62" xr:uid="{C73F0B82-2090-4097-97AD-E403AFE3B2EC}"/>
-    <hyperlink ref="A9" r:id="rId63" xr:uid="{9DF84BD1-C164-4EF6-B4D0-AD7D990A9D96}"/>
-    <hyperlink ref="A42" r:id="rId64" xr:uid="{68360DD4-DDA1-49D3-BB37-B43B3EAC12FF}"/>
-    <hyperlink ref="A44" r:id="rId65" xr:uid="{6A9F76DE-0D74-4627-AAA0-B3CE9395DAE4}"/>
-    <hyperlink ref="A55" r:id="rId66" xr:uid="{484E7728-C71A-46F7-B876-5A56D0B85396}"/>
-    <hyperlink ref="A56" r:id="rId67" xr:uid="{3064EE0B-E504-4F88-A252-B5F8D5B4194C}"/>
-    <hyperlink ref="A43" r:id="rId68" xr:uid="{42638FA7-B176-4DEB-9A54-EDA46E7B5006}"/>
-    <hyperlink ref="A25" r:id="rId69" xr:uid="{D9F2430C-86F9-4C77-99A8-8CDEBFFE3F85}"/>
-    <hyperlink ref="A59" r:id="rId70" xr:uid="{58906CCD-8C93-4B1B-B643-AB75C0509C5A}"/>
-    <hyperlink ref="A60" r:id="rId71" xr:uid="{C0AC560F-B999-4127-B869-E2BC2C00A64E}"/>
-    <hyperlink ref="A61" r:id="rId72" xr:uid="{9F7FA7DA-BCAE-470E-9599-9A39F95EDEF5}"/>
-    <hyperlink ref="A62" r:id="rId73" xr:uid="{5367DA16-C261-4E50-861D-4087CA68B932}"/>
-    <hyperlink ref="A63" r:id="rId74" xr:uid="{F42A1CAB-AB40-4E0A-B94A-4610739B04D0}"/>
-    <hyperlink ref="A83" r:id="rId75" xr:uid="{F4DB37F1-8422-4486-A002-2780C81DC403}"/>
-    <hyperlink ref="A84" r:id="rId76" xr:uid="{B43EE848-AC29-435C-A0E0-00A42ADEC034}"/>
-    <hyperlink ref="A85" r:id="rId77" xr:uid="{62649859-1633-45FD-BF52-8921BD602AA0}"/>
-    <hyperlink ref="A86" r:id="rId78" xr:uid="{CF23DDC4-A9F8-4C01-A2F0-F6BE105B7088}"/>
-    <hyperlink ref="A64" r:id="rId79" xr:uid="{24CFBC5E-5D3E-40D1-A273-13F3497C3F94}"/>
-    <hyperlink ref="A57" r:id="rId80" xr:uid="{B60E245A-5057-4096-8AF3-58844CB5FF0F}"/>
-    <hyperlink ref="A19" r:id="rId81" xr:uid="{0F0E1776-1E4C-4287-89BA-DC50FDAC06B9}"/>
-    <hyperlink ref="A20" r:id="rId82" xr:uid="{AEABBFA6-C9B8-416F-8D9F-624AB1E0977A}"/>
-    <hyperlink ref="A45" r:id="rId83" xr:uid="{9EA82A47-72A8-4264-9820-0F50CD466BC2}"/>
-    <hyperlink ref="A46" r:id="rId84" xr:uid="{67901DBC-ED2F-45E8-99B1-9288CF61861E}"/>
-    <hyperlink ref="A34" r:id="rId85" xr:uid="{3DB22C1E-FA47-42D0-BEBF-51996529537A}"/>
-    <hyperlink ref="A87" r:id="rId86" xr:uid="{8F545C94-2C94-4AA2-8556-C116187C58EE}"/>
-    <hyperlink ref="A88" r:id="rId87" xr:uid="{91D69FCB-DA79-4300-BDA6-B9E162ABC2C8}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{EF79030D-136C-490E-A631-138E643E41E2}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{DA4A3341-0322-4D4D-B04E-6F7E33C8CC46}"/>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{D05F2362-EB61-4808-B60D-3DFB4D7438EE}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{971F0FA3-6960-48DF-95AC-E1F9C9831CB7}"/>
+    <hyperlink ref="A47" r:id="rId3" xr:uid="{E55A223B-4356-4EB0-9020-FFC7955B5818}"/>
+    <hyperlink ref="A21" r:id="rId4" xr:uid="{F4EFC3D2-9C27-4CA0-A8E4-11414BC10C4A}"/>
+    <hyperlink ref="A48" r:id="rId5" xr:uid="{6982A20F-C722-48A3-B0F0-55BE72BA9D7F}"/>
+    <hyperlink ref="A36" r:id="rId6" xr:uid="{44C0C1A6-986C-48AD-AC57-7555458F40A1}"/>
+    <hyperlink ref="A66" r:id="rId7" xr:uid="{593BF084-B401-4940-B833-D7AFD17366A0}"/>
+    <hyperlink ref="A67" r:id="rId8" xr:uid="{0ACBA58C-6AA5-4F61-82E6-489D9F0DBC07}"/>
+    <hyperlink ref="A68" r:id="rId9" xr:uid="{1DE3B781-5627-4B72-9856-7FBE3826250D}"/>
+    <hyperlink ref="A69" r:id="rId10" xr:uid="{0F94CC37-4542-47D9-817C-0D81B7E0CEF8}"/>
+    <hyperlink ref="A2" r:id="rId11" xr:uid="{CCF9258C-BC39-46DB-AF9E-07EDBB9C61A0}"/>
+    <hyperlink ref="A3" r:id="rId12" xr:uid="{C6C79706-D536-4013-97A8-6D36C5DBF382}"/>
+    <hyperlink ref="A70" r:id="rId13" xr:uid="{6E9C8373-D2BB-40CB-B526-6A77C8A67A7C}"/>
+    <hyperlink ref="A37" r:id="rId14" xr:uid="{896AFB86-BDB0-4AD6-8362-58B64B6D1D72}"/>
+    <hyperlink ref="A49" r:id="rId15" xr:uid="{4FDFEB62-2C80-447B-80D6-8F1C9338333D}"/>
+    <hyperlink ref="A71" r:id="rId16" xr:uid="{FD9DA799-8D7C-4ECF-9798-5C5A02E258C6}"/>
+    <hyperlink ref="A50" r:id="rId17" xr:uid="{161E905F-EE20-4BC3-B4DA-142781B69041}"/>
+    <hyperlink ref="A51" r:id="rId18" xr:uid="{E5143DCF-EDD7-4321-BE83-9ED1ECC19D29}"/>
+    <hyperlink ref="A72" r:id="rId19" xr:uid="{4F361B7F-FCD4-46B9-B66B-CEC0A4A919DF}"/>
+    <hyperlink ref="A52" r:id="rId20" xr:uid="{5E2BF270-81CA-478B-8C87-C0A35EF8A5F1}"/>
+    <hyperlink ref="A28" r:id="rId21" xr:uid="{899FA97E-831F-470E-A2E6-2495B3EFC253}"/>
+    <hyperlink ref="A29" r:id="rId22" xr:uid="{1DABAEF0-5DDA-4C80-86A5-BBBAAC122AC7}"/>
+    <hyperlink ref="A73" r:id="rId23" xr:uid="{8F07EA8F-6257-4295-8ADB-28CD3622EABF}"/>
+    <hyperlink ref="A74" r:id="rId24" xr:uid="{C6AE1645-3343-44A0-A4CF-3DAA3A01A4AF}"/>
+    <hyperlink ref="A58" r:id="rId25" xr:uid="{D9ADDE67-C9FF-4BA0-BD4A-681F9AB8A641}"/>
+    <hyperlink ref="A75" r:id="rId26" xr:uid="{7A8F55B3-F305-46B6-A451-D1256833BFD5}"/>
+    <hyperlink ref="A32" r:id="rId27" xr:uid="{5EBF509F-C054-413F-B4E0-D972A9D4BE7F}"/>
+    <hyperlink ref="A53" r:id="rId28" xr:uid="{B950C0F9-732A-41AA-9D52-7AE8B8966F08}"/>
+    <hyperlink ref="A38" r:id="rId29" xr:uid="{7AEB5054-A71E-4DC4-82E4-225807F0D353}"/>
+    <hyperlink ref="A39" r:id="rId30" xr:uid="{54E84D26-D36E-4AC1-8F2F-69B23A786B3A}"/>
+    <hyperlink ref="A40" r:id="rId31" xr:uid="{F7AB5CE8-1A66-4875-AEF3-9D9841AB5E42}"/>
+    <hyperlink ref="A22" r:id="rId32" xr:uid="{C968C87C-62DF-4E00-89CD-9CB9C6474C37}"/>
+    <hyperlink ref="A65" r:id="rId33" xr:uid="{35A6963D-98B4-4943-885F-08ED3DD8FB91}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{D6BE12B7-B4FC-4417-9D1F-E2113A8C2E14}"/>
+    <hyperlink ref="A30" r:id="rId35" xr:uid="{63E2B56D-0453-409F-B704-50AE50E47584}"/>
+    <hyperlink ref="A31" r:id="rId36" xr:uid="{B842BFEC-B330-402F-AC9F-23635E666DB3}"/>
+    <hyperlink ref="A33" r:id="rId37" xr:uid="{407CF958-C38A-4DDB-B68C-4011E9828B9A}"/>
+    <hyperlink ref="A10" r:id="rId38" xr:uid="{913B2819-6075-4250-A4C5-41151E63C8B8}"/>
+    <hyperlink ref="A11" r:id="rId39" xr:uid="{A56FFFB0-9CE8-4C67-9E1A-2C34A443012E}"/>
+    <hyperlink ref="A12" r:id="rId40" xr:uid="{2FF0F1F0-3951-44CB-A468-EBEC837D6F7C}"/>
+    <hyperlink ref="A13" r:id="rId41" xr:uid="{4DEA05E8-35D4-449E-94D6-75066833E477}"/>
+    <hyperlink ref="A14" r:id="rId42" xr:uid="{05DCE222-BB19-4608-8B15-7C18C8343EBF}"/>
+    <hyperlink ref="A15" r:id="rId43" xr:uid="{6F7987C1-FA9A-4783-ACF4-B9699FF18FB7}"/>
+    <hyperlink ref="A16" r:id="rId44" xr:uid="{A1C33F9C-02B7-4AEA-9CE0-DF03EF8D45A6}"/>
+    <hyperlink ref="A17" r:id="rId45" xr:uid="{373406CB-BB55-4BD7-9765-BF74CF1E963A}"/>
+    <hyperlink ref="A18" r:id="rId46" xr:uid="{028DB785-9A21-4B40-9789-4CA254B17A69}"/>
+    <hyperlink ref="A76" r:id="rId47" xr:uid="{A90C220F-763E-4ACB-8739-9466FB0BC49A}"/>
+    <hyperlink ref="A77" r:id="rId48" xr:uid="{462990B5-AC14-40EC-B676-811CB6D16D76}"/>
+    <hyperlink ref="A23" r:id="rId49" xr:uid="{59AFC8C3-B32F-4BD9-B78E-52A7EFC7B5C3}"/>
+    <hyperlink ref="A24" r:id="rId50" xr:uid="{398BF30C-CA8F-4E5B-81F6-6E062A4E1DD2}"/>
+    <hyperlink ref="A54" r:id="rId51" xr:uid="{6243666B-81D4-46BE-A1AD-2355FC526B6A}"/>
+    <hyperlink ref="A4" r:id="rId52" xr:uid="{B617E47A-AE54-4352-8AF0-402F18FAFA85}"/>
+    <hyperlink ref="A78" r:id="rId53" xr:uid="{5C23255D-7776-4CE8-AB4E-B630491FB8C9}"/>
+    <hyperlink ref="A79" r:id="rId54" xr:uid="{E097C886-A6DD-4938-B0D2-B0805024AA72}"/>
+    <hyperlink ref="A80" r:id="rId55" xr:uid="{9134C439-A9F6-4021-88C6-18B774787A17}"/>
+    <hyperlink ref="A5" r:id="rId56" xr:uid="{BAFFDB11-6D6A-4C34-8BB2-3407776AEF9E}"/>
+    <hyperlink ref="A81" r:id="rId57" xr:uid="{89676FA4-0CF5-4034-BD25-6987B89DAC72}"/>
+    <hyperlink ref="A82" r:id="rId58" xr:uid="{BADDDB5D-A44B-432C-AF16-180738B0B1CA}"/>
+    <hyperlink ref="A41" r:id="rId59" xr:uid="{4661D5E8-D8F6-4CA1-8FFB-D37D14131FD7}"/>
+    <hyperlink ref="A6" r:id="rId60" xr:uid="{715275F5-E996-43D3-892C-3434A36790FB}"/>
+    <hyperlink ref="A7" r:id="rId61" xr:uid="{4117E58A-9339-4763-9FCF-B48AC51EAA22}"/>
+    <hyperlink ref="A8" r:id="rId62" xr:uid="{A91F46E8-30A6-45E5-A825-159A1D92490B}"/>
+    <hyperlink ref="A9" r:id="rId63" xr:uid="{DF02CEF3-0925-4316-A6E4-1F77260684CB}"/>
+    <hyperlink ref="A42" r:id="rId64" xr:uid="{76160610-36CB-465E-B0CE-798744241EDD}"/>
+    <hyperlink ref="A44" r:id="rId65" xr:uid="{50A9C294-6A32-4E36-9645-0A6E17A7F4CF}"/>
+    <hyperlink ref="A55" r:id="rId66" xr:uid="{AFF402E1-3497-4A1D-8B5F-0B686938B679}"/>
+    <hyperlink ref="A56" r:id="rId67" xr:uid="{65302E0F-6CCC-424F-B944-99F73168351D}"/>
+    <hyperlink ref="A43" r:id="rId68" xr:uid="{2F3001A1-5A5B-40B3-853B-141B904E7FDB}"/>
+    <hyperlink ref="A25" r:id="rId69" xr:uid="{84E36A12-5427-4D70-A9FF-E035EE535CDA}"/>
+    <hyperlink ref="A59" r:id="rId70" xr:uid="{0534759F-C623-4DFE-AFED-D120419D4B8E}"/>
+    <hyperlink ref="A60" r:id="rId71" xr:uid="{97629FA5-CA86-47BD-9AB1-0743DC3940DB}"/>
+    <hyperlink ref="A61" r:id="rId72" xr:uid="{BE47032E-E891-4AB8-BDB1-1D46BA07CCA8}"/>
+    <hyperlink ref="A62" r:id="rId73" xr:uid="{B315247E-9CD1-465B-AE39-F18DFBD6F240}"/>
+    <hyperlink ref="A63" r:id="rId74" xr:uid="{A7089497-19D9-4AE8-A149-1640D1BE483A}"/>
+    <hyperlink ref="A83" r:id="rId75" xr:uid="{F43AD7D5-F14B-444C-B550-34FDD1F55366}"/>
+    <hyperlink ref="A84" r:id="rId76" xr:uid="{F8D8C61C-2EE4-4917-9428-7411B61EF5DE}"/>
+    <hyperlink ref="A85" r:id="rId77" xr:uid="{BA69480D-222B-4864-AA91-7B54623713F5}"/>
+    <hyperlink ref="A86" r:id="rId78" xr:uid="{8719CE14-24FB-422D-B566-FF7C293E7E19}"/>
+    <hyperlink ref="A64" r:id="rId79" xr:uid="{EE4256B3-4E47-48E5-9927-6F8410E0348E}"/>
+    <hyperlink ref="A57" r:id="rId80" xr:uid="{440E8DFB-6E67-44C9-A0B7-B743CECC74F8}"/>
+    <hyperlink ref="A19" r:id="rId81" xr:uid="{0B69E4CA-8171-48DB-89BB-600456843236}"/>
+    <hyperlink ref="A20" r:id="rId82" xr:uid="{44D0494D-C02F-45FB-9D5A-9818EC2A9078}"/>
+    <hyperlink ref="A45" r:id="rId83" xr:uid="{39628863-528D-4DC1-9767-622D80B932BC}"/>
+    <hyperlink ref="A46" r:id="rId84" xr:uid="{E37140D6-C54D-4B65-B830-A793716C9932}"/>
+    <hyperlink ref="A34" r:id="rId85" xr:uid="{51904AFF-481A-4E36-ADA6-13EEBA9790CA}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{120D4FB5-4E75-4880-96ED-484F31B36A6C}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{227046B6-1F47-4EF2-A830-B5F3CFEC5574}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{C32DAE1F-4076-4A7C-B070-E9B67D465943}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{EB0803D7-A3BE-4E0F-9603-72C59AAE2EBC}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{5B9A01B7-3C96-45B8-8F4D-D5C282837CC6}"/>
+    <hyperlink ref="A117" r:id="rId91" xr:uid="{3478D5D0-62EA-4726-96D8-18D4756CB0B6}"/>
+    <hyperlink ref="A118" r:id="rId92" xr:uid="{3F63B0CE-25B2-4F0A-8A7D-F19DB72FADDC}"/>
+    <hyperlink ref="A119" r:id="rId93" xr:uid="{B266B5EC-5FA7-4F26-BF61-C5CCA4A7EA1D}"/>
+    <hyperlink ref="A120" r:id="rId94" xr:uid="{F5D21B2F-FF3E-46F9-982D-84C965C64228}"/>
+    <hyperlink ref="A121" r:id="rId95" xr:uid="{704A3361-C703-4A79-85B4-21D247C4FFF9}"/>
+    <hyperlink ref="A122" r:id="rId96" xr:uid="{0DEA7FA1-49B7-407A-868F-8C6DDA8DC20F}"/>
+    <hyperlink ref="A123" r:id="rId97" xr:uid="{9CB90ACA-BEFA-49A9-9FC4-A7120DB6C485}"/>
+    <hyperlink ref="A124" r:id="rId98" xr:uid="{956D5641-1807-4198-AFD3-49C6B69CE617}"/>
+    <hyperlink ref="A125" r:id="rId99" xr:uid="{0E8A13BC-BD06-4858-8C30-AD82B0B3E478}"/>
+    <hyperlink ref="A126" r:id="rId100" xr:uid="{1916279D-B147-470F-AB02-BED7C86380C4}"/>
+    <hyperlink ref="A127" r:id="rId101" xr:uid="{94E89D53-B626-45C6-B26E-4E8EB391E594}"/>
+    <hyperlink ref="A128" r:id="rId102" xr:uid="{21AF5556-5607-49EF-8B04-F6148229148E}"/>
+    <hyperlink ref="A129" r:id="rId103" xr:uid="{C6C7C154-F392-4313-BDBE-008CF9CCEAFA}"/>
+    <hyperlink ref="A130" r:id="rId104" xr:uid="{3C83FE4E-EBAD-40C3-BE7C-ECBCAB2958DC}"/>
+    <hyperlink ref="A131" r:id="rId105" xr:uid="{E809C6E0-3DCF-4E6D-B155-A8728DAC6D75}"/>
+    <hyperlink ref="A132" r:id="rId106" xr:uid="{769990B7-72A6-4BFC-8725-E539A1378CB3}"/>
+    <hyperlink ref="A133" r:id="rId107" xr:uid="{459C4318-E5A7-4611-8038-D9FFF03724C8}"/>
+    <hyperlink ref="A134" r:id="rId108" xr:uid="{E5A1F5BA-49F2-4AEF-B1AA-4F26AD1AFC8E}"/>
+    <hyperlink ref="A135" r:id="rId109" xr:uid="{1850F2DF-D458-4D14-953E-AE17B02472E0}"/>
+    <hyperlink ref="A136" r:id="rId110" xr:uid="{14D97E7A-9F40-47E3-A824-8FA22DB2E3D0}"/>
+    <hyperlink ref="A137" r:id="rId111" xr:uid="{3CB899C5-64DD-4574-8B9B-82166BB05565}"/>
+    <hyperlink ref="A138" r:id="rId112" xr:uid="{D28C7259-83F1-4E08-9AA9-40D9FDC6287E}"/>
+    <hyperlink ref="A139" r:id="rId113" xr:uid="{AF63C18D-5CD3-48FB-9565-A5D5103A22E7}"/>
+    <hyperlink ref="A140" r:id="rId114" xr:uid="{926B115A-DCDF-450D-AB68-1FEF00D30927}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Apps/estoque_mercado_livre/Data/Urls.xlsx
+++ b/Apps/estoque_mercado_livre/Data/Urls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\FIVE-C\Streamlit\Apps\estoque_mercado_livre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88515CA2-BB9D-499E-A302-B39680A061C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD6DE2E-097A-4612-A6A4-38955BB9360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CE9DE5A0-1E27-407E-8DBD-061DE87DE0A8}"/>
+    <workbookView xWindow="7995" yWindow="2415" windowWidth="28800" windowHeight="11385" xr2:uid="{CE9DE5A0-1E27-407E-8DBD-061DE87DE0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>https://produto.mercadolivre.com.br/MLB-1685297927-gopro-hero-9-black-camera-original-nfe-_JM</t>
   </si>
@@ -454,6 +454,21 @@
   </si>
   <si>
     <t>https://produto.mercadolivre.com.br/MLB-1870605838-cmera-gopro-max-56k-chdhz-201-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2025499972-camera-gopro-hero-10-black-53k604k12027k240-com-nf-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2049127049-cmera-de-aco-gopro-hero-10-black-53k60-wifi-case-rigido-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2049145520-cmera-de-aco-gopro-hero-10-black-53k60-wifi-case-rigido-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1835192673-cmera-gopro-hero8-4k-chdhx-801ntscpal-black-nf-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1897149599-cmera-gopro-hero-9-black-camiseta-original-gopro-nf-_JM</t>
   </si>
 </sst>
 </file>
@@ -913,9 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD55D8E-EAA2-4C36-95CE-88C48AA10AED}">
-  <dimension ref="A1:A140"/>
+  <dimension ref="A1:A145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="O124" sqref="O124"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1619,131 +1636,161 @@
         <v>139</v>
       </c>
     </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A140">
+  <conditionalFormatting sqref="A2:A145">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A90">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" xr:uid="{D05F2362-EB61-4808-B60D-3DFB4D7438EE}"/>
-    <hyperlink ref="A27" r:id="rId2" xr:uid="{971F0FA3-6960-48DF-95AC-E1F9C9831CB7}"/>
-    <hyperlink ref="A47" r:id="rId3" xr:uid="{E55A223B-4356-4EB0-9020-FFC7955B5818}"/>
-    <hyperlink ref="A21" r:id="rId4" xr:uid="{F4EFC3D2-9C27-4CA0-A8E4-11414BC10C4A}"/>
-    <hyperlink ref="A48" r:id="rId5" xr:uid="{6982A20F-C722-48A3-B0F0-55BE72BA9D7F}"/>
-    <hyperlink ref="A36" r:id="rId6" xr:uid="{44C0C1A6-986C-48AD-AC57-7555458F40A1}"/>
-    <hyperlink ref="A66" r:id="rId7" xr:uid="{593BF084-B401-4940-B833-D7AFD17366A0}"/>
-    <hyperlink ref="A67" r:id="rId8" xr:uid="{0ACBA58C-6AA5-4F61-82E6-489D9F0DBC07}"/>
-    <hyperlink ref="A68" r:id="rId9" xr:uid="{1DE3B781-5627-4B72-9856-7FBE3826250D}"/>
-    <hyperlink ref="A69" r:id="rId10" xr:uid="{0F94CC37-4542-47D9-817C-0D81B7E0CEF8}"/>
-    <hyperlink ref="A2" r:id="rId11" xr:uid="{CCF9258C-BC39-46DB-AF9E-07EDBB9C61A0}"/>
-    <hyperlink ref="A3" r:id="rId12" xr:uid="{C6C79706-D536-4013-97A8-6D36C5DBF382}"/>
-    <hyperlink ref="A70" r:id="rId13" xr:uid="{6E9C8373-D2BB-40CB-B526-6A77C8A67A7C}"/>
-    <hyperlink ref="A37" r:id="rId14" xr:uid="{896AFB86-BDB0-4AD6-8362-58B64B6D1D72}"/>
-    <hyperlink ref="A49" r:id="rId15" xr:uid="{4FDFEB62-2C80-447B-80D6-8F1C9338333D}"/>
-    <hyperlink ref="A71" r:id="rId16" xr:uid="{FD9DA799-8D7C-4ECF-9798-5C5A02E258C6}"/>
-    <hyperlink ref="A50" r:id="rId17" xr:uid="{161E905F-EE20-4BC3-B4DA-142781B69041}"/>
-    <hyperlink ref="A51" r:id="rId18" xr:uid="{E5143DCF-EDD7-4321-BE83-9ED1ECC19D29}"/>
-    <hyperlink ref="A72" r:id="rId19" xr:uid="{4F361B7F-FCD4-46B9-B66B-CEC0A4A919DF}"/>
-    <hyperlink ref="A52" r:id="rId20" xr:uid="{5E2BF270-81CA-478B-8C87-C0A35EF8A5F1}"/>
-    <hyperlink ref="A28" r:id="rId21" xr:uid="{899FA97E-831F-470E-A2E6-2495B3EFC253}"/>
-    <hyperlink ref="A29" r:id="rId22" xr:uid="{1DABAEF0-5DDA-4C80-86A5-BBBAAC122AC7}"/>
-    <hyperlink ref="A73" r:id="rId23" xr:uid="{8F07EA8F-6257-4295-8ADB-28CD3622EABF}"/>
-    <hyperlink ref="A74" r:id="rId24" xr:uid="{C6AE1645-3343-44A0-A4CF-3DAA3A01A4AF}"/>
-    <hyperlink ref="A58" r:id="rId25" xr:uid="{D9ADDE67-C9FF-4BA0-BD4A-681F9AB8A641}"/>
-    <hyperlink ref="A75" r:id="rId26" xr:uid="{7A8F55B3-F305-46B6-A451-D1256833BFD5}"/>
-    <hyperlink ref="A32" r:id="rId27" xr:uid="{5EBF509F-C054-413F-B4E0-D972A9D4BE7F}"/>
-    <hyperlink ref="A53" r:id="rId28" xr:uid="{B950C0F9-732A-41AA-9D52-7AE8B8966F08}"/>
-    <hyperlink ref="A38" r:id="rId29" xr:uid="{7AEB5054-A71E-4DC4-82E4-225807F0D353}"/>
-    <hyperlink ref="A39" r:id="rId30" xr:uid="{54E84D26-D36E-4AC1-8F2F-69B23A786B3A}"/>
-    <hyperlink ref="A40" r:id="rId31" xr:uid="{F7AB5CE8-1A66-4875-AEF3-9D9841AB5E42}"/>
-    <hyperlink ref="A22" r:id="rId32" xr:uid="{C968C87C-62DF-4E00-89CD-9CB9C6474C37}"/>
-    <hyperlink ref="A65" r:id="rId33" xr:uid="{35A6963D-98B4-4943-885F-08ED3DD8FB91}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{D6BE12B7-B4FC-4417-9D1F-E2113A8C2E14}"/>
-    <hyperlink ref="A30" r:id="rId35" xr:uid="{63E2B56D-0453-409F-B704-50AE50E47584}"/>
-    <hyperlink ref="A31" r:id="rId36" xr:uid="{B842BFEC-B330-402F-AC9F-23635E666DB3}"/>
-    <hyperlink ref="A33" r:id="rId37" xr:uid="{407CF958-C38A-4DDB-B68C-4011E9828B9A}"/>
-    <hyperlink ref="A10" r:id="rId38" xr:uid="{913B2819-6075-4250-A4C5-41151E63C8B8}"/>
-    <hyperlink ref="A11" r:id="rId39" xr:uid="{A56FFFB0-9CE8-4C67-9E1A-2C34A443012E}"/>
-    <hyperlink ref="A12" r:id="rId40" xr:uid="{2FF0F1F0-3951-44CB-A468-EBEC837D6F7C}"/>
-    <hyperlink ref="A13" r:id="rId41" xr:uid="{4DEA05E8-35D4-449E-94D6-75066833E477}"/>
-    <hyperlink ref="A14" r:id="rId42" xr:uid="{05DCE222-BB19-4608-8B15-7C18C8343EBF}"/>
-    <hyperlink ref="A15" r:id="rId43" xr:uid="{6F7987C1-FA9A-4783-ACF4-B9699FF18FB7}"/>
-    <hyperlink ref="A16" r:id="rId44" xr:uid="{A1C33F9C-02B7-4AEA-9CE0-DF03EF8D45A6}"/>
-    <hyperlink ref="A17" r:id="rId45" xr:uid="{373406CB-BB55-4BD7-9765-BF74CF1E963A}"/>
-    <hyperlink ref="A18" r:id="rId46" xr:uid="{028DB785-9A21-4B40-9789-4CA254B17A69}"/>
-    <hyperlink ref="A76" r:id="rId47" xr:uid="{A90C220F-763E-4ACB-8739-9466FB0BC49A}"/>
-    <hyperlink ref="A77" r:id="rId48" xr:uid="{462990B5-AC14-40EC-B676-811CB6D16D76}"/>
-    <hyperlink ref="A23" r:id="rId49" xr:uid="{59AFC8C3-B32F-4BD9-B78E-52A7EFC7B5C3}"/>
-    <hyperlink ref="A24" r:id="rId50" xr:uid="{398BF30C-CA8F-4E5B-81F6-6E062A4E1DD2}"/>
-    <hyperlink ref="A54" r:id="rId51" xr:uid="{6243666B-81D4-46BE-A1AD-2355FC526B6A}"/>
-    <hyperlink ref="A4" r:id="rId52" xr:uid="{B617E47A-AE54-4352-8AF0-402F18FAFA85}"/>
-    <hyperlink ref="A78" r:id="rId53" xr:uid="{5C23255D-7776-4CE8-AB4E-B630491FB8C9}"/>
-    <hyperlink ref="A79" r:id="rId54" xr:uid="{E097C886-A6DD-4938-B0D2-B0805024AA72}"/>
-    <hyperlink ref="A80" r:id="rId55" xr:uid="{9134C439-A9F6-4021-88C6-18B774787A17}"/>
-    <hyperlink ref="A5" r:id="rId56" xr:uid="{BAFFDB11-6D6A-4C34-8BB2-3407776AEF9E}"/>
-    <hyperlink ref="A81" r:id="rId57" xr:uid="{89676FA4-0CF5-4034-BD25-6987B89DAC72}"/>
-    <hyperlink ref="A82" r:id="rId58" xr:uid="{BADDDB5D-A44B-432C-AF16-180738B0B1CA}"/>
-    <hyperlink ref="A41" r:id="rId59" xr:uid="{4661D5E8-D8F6-4CA1-8FFB-D37D14131FD7}"/>
-    <hyperlink ref="A6" r:id="rId60" xr:uid="{715275F5-E996-43D3-892C-3434A36790FB}"/>
-    <hyperlink ref="A7" r:id="rId61" xr:uid="{4117E58A-9339-4763-9FCF-B48AC51EAA22}"/>
-    <hyperlink ref="A8" r:id="rId62" xr:uid="{A91F46E8-30A6-45E5-A825-159A1D92490B}"/>
-    <hyperlink ref="A9" r:id="rId63" xr:uid="{DF02CEF3-0925-4316-A6E4-1F77260684CB}"/>
-    <hyperlink ref="A42" r:id="rId64" xr:uid="{76160610-36CB-465E-B0CE-798744241EDD}"/>
-    <hyperlink ref="A44" r:id="rId65" xr:uid="{50A9C294-6A32-4E36-9645-0A6E17A7F4CF}"/>
-    <hyperlink ref="A55" r:id="rId66" xr:uid="{AFF402E1-3497-4A1D-8B5F-0B686938B679}"/>
-    <hyperlink ref="A56" r:id="rId67" xr:uid="{65302E0F-6CCC-424F-B944-99F73168351D}"/>
-    <hyperlink ref="A43" r:id="rId68" xr:uid="{2F3001A1-5A5B-40B3-853B-141B904E7FDB}"/>
-    <hyperlink ref="A25" r:id="rId69" xr:uid="{84E36A12-5427-4D70-A9FF-E035EE535CDA}"/>
-    <hyperlink ref="A59" r:id="rId70" xr:uid="{0534759F-C623-4DFE-AFED-D120419D4B8E}"/>
-    <hyperlink ref="A60" r:id="rId71" xr:uid="{97629FA5-CA86-47BD-9AB1-0743DC3940DB}"/>
-    <hyperlink ref="A61" r:id="rId72" xr:uid="{BE47032E-E891-4AB8-BDB1-1D46BA07CCA8}"/>
-    <hyperlink ref="A62" r:id="rId73" xr:uid="{B315247E-9CD1-465B-AE39-F18DFBD6F240}"/>
-    <hyperlink ref="A63" r:id="rId74" xr:uid="{A7089497-19D9-4AE8-A149-1640D1BE483A}"/>
-    <hyperlink ref="A83" r:id="rId75" xr:uid="{F43AD7D5-F14B-444C-B550-34FDD1F55366}"/>
-    <hyperlink ref="A84" r:id="rId76" xr:uid="{F8D8C61C-2EE4-4917-9428-7411B61EF5DE}"/>
-    <hyperlink ref="A85" r:id="rId77" xr:uid="{BA69480D-222B-4864-AA91-7B54623713F5}"/>
-    <hyperlink ref="A86" r:id="rId78" xr:uid="{8719CE14-24FB-422D-B566-FF7C293E7E19}"/>
-    <hyperlink ref="A64" r:id="rId79" xr:uid="{EE4256B3-4E47-48E5-9927-6F8410E0348E}"/>
-    <hyperlink ref="A57" r:id="rId80" xr:uid="{440E8DFB-6E67-44C9-A0B7-B743CECC74F8}"/>
-    <hyperlink ref="A19" r:id="rId81" xr:uid="{0B69E4CA-8171-48DB-89BB-600456843236}"/>
-    <hyperlink ref="A20" r:id="rId82" xr:uid="{44D0494D-C02F-45FB-9D5A-9818EC2A9078}"/>
-    <hyperlink ref="A45" r:id="rId83" xr:uid="{39628863-528D-4DC1-9767-622D80B932BC}"/>
-    <hyperlink ref="A46" r:id="rId84" xr:uid="{E37140D6-C54D-4B65-B830-A793716C9932}"/>
-    <hyperlink ref="A34" r:id="rId85" xr:uid="{51904AFF-481A-4E36-ADA6-13EEBA9790CA}"/>
-    <hyperlink ref="A87" r:id="rId86" xr:uid="{120D4FB5-4E75-4880-96ED-484F31B36A6C}"/>
-    <hyperlink ref="A88" r:id="rId87" xr:uid="{227046B6-1F47-4EF2-A830-B5F3CFEC5574}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{C32DAE1F-4076-4A7C-B070-E9B67D465943}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{EB0803D7-A3BE-4E0F-9603-72C59AAE2EBC}"/>
-    <hyperlink ref="A91" r:id="rId90" xr:uid="{5B9A01B7-3C96-45B8-8F4D-D5C282837CC6}"/>
-    <hyperlink ref="A117" r:id="rId91" xr:uid="{3478D5D0-62EA-4726-96D8-18D4756CB0B6}"/>
-    <hyperlink ref="A118" r:id="rId92" xr:uid="{3F63B0CE-25B2-4F0A-8A7D-F19DB72FADDC}"/>
-    <hyperlink ref="A119" r:id="rId93" xr:uid="{B266B5EC-5FA7-4F26-BF61-C5CCA4A7EA1D}"/>
-    <hyperlink ref="A120" r:id="rId94" xr:uid="{F5D21B2F-FF3E-46F9-982D-84C965C64228}"/>
-    <hyperlink ref="A121" r:id="rId95" xr:uid="{704A3361-C703-4A79-85B4-21D247C4FFF9}"/>
-    <hyperlink ref="A122" r:id="rId96" xr:uid="{0DEA7FA1-49B7-407A-868F-8C6DDA8DC20F}"/>
-    <hyperlink ref="A123" r:id="rId97" xr:uid="{9CB90ACA-BEFA-49A9-9FC4-A7120DB6C485}"/>
-    <hyperlink ref="A124" r:id="rId98" xr:uid="{956D5641-1807-4198-AFD3-49C6B69CE617}"/>
-    <hyperlink ref="A125" r:id="rId99" xr:uid="{0E8A13BC-BD06-4858-8C30-AD82B0B3E478}"/>
-    <hyperlink ref="A126" r:id="rId100" xr:uid="{1916279D-B147-470F-AB02-BED7C86380C4}"/>
-    <hyperlink ref="A127" r:id="rId101" xr:uid="{94E89D53-B626-45C6-B26E-4E8EB391E594}"/>
-    <hyperlink ref="A128" r:id="rId102" xr:uid="{21AF5556-5607-49EF-8B04-F6148229148E}"/>
-    <hyperlink ref="A129" r:id="rId103" xr:uid="{C6C7C154-F392-4313-BDBE-008CF9CCEAFA}"/>
-    <hyperlink ref="A130" r:id="rId104" xr:uid="{3C83FE4E-EBAD-40C3-BE7C-ECBCAB2958DC}"/>
-    <hyperlink ref="A131" r:id="rId105" xr:uid="{E809C6E0-3DCF-4E6D-B155-A8728DAC6D75}"/>
-    <hyperlink ref="A132" r:id="rId106" xr:uid="{769990B7-72A6-4BFC-8725-E539A1378CB3}"/>
-    <hyperlink ref="A133" r:id="rId107" xr:uid="{459C4318-E5A7-4611-8038-D9FFF03724C8}"/>
-    <hyperlink ref="A134" r:id="rId108" xr:uid="{E5A1F5BA-49F2-4AEF-B1AA-4F26AD1AFC8E}"/>
-    <hyperlink ref="A135" r:id="rId109" xr:uid="{1850F2DF-D458-4D14-953E-AE17B02472E0}"/>
-    <hyperlink ref="A136" r:id="rId110" xr:uid="{14D97E7A-9F40-47E3-A824-8FA22DB2E3D0}"/>
-    <hyperlink ref="A137" r:id="rId111" xr:uid="{3CB899C5-64DD-4574-8B9B-82166BB05565}"/>
-    <hyperlink ref="A138" r:id="rId112" xr:uid="{D28C7259-83F1-4E08-9AA9-40D9FDC6287E}"/>
-    <hyperlink ref="A139" r:id="rId113" xr:uid="{AF63C18D-5CD3-48FB-9565-A5D5103A22E7}"/>
-    <hyperlink ref="A140" r:id="rId114" xr:uid="{926B115A-DCDF-450D-AB68-1FEF00D30927}"/>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{217A4F9E-8E9E-416F-8A43-1B33F9A1D701}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{4468B987-DD1A-4CAF-A6B9-C41480470F92}"/>
+    <hyperlink ref="A47" r:id="rId3" xr:uid="{47DF2AB2-6B4E-4D5A-AEBD-CE73DCFB908E}"/>
+    <hyperlink ref="A21" r:id="rId4" xr:uid="{BDB20AD1-86E7-4476-A196-F39A958425C0}"/>
+    <hyperlink ref="A48" r:id="rId5" xr:uid="{5DB4794E-5E0F-4857-B9EF-76971FD00981}"/>
+    <hyperlink ref="A36" r:id="rId6" xr:uid="{CCE6B308-C2D2-452E-9F9A-02EC6BA9BE6E}"/>
+    <hyperlink ref="A66" r:id="rId7" xr:uid="{7A03ABA3-EC2E-435D-B58C-DC52CF5513C5}"/>
+    <hyperlink ref="A67" r:id="rId8" xr:uid="{739D25BC-4095-47A3-8844-8A71C8392493}"/>
+    <hyperlink ref="A68" r:id="rId9" xr:uid="{A632F060-B1AA-44A5-B530-B27E97E294CA}"/>
+    <hyperlink ref="A69" r:id="rId10" xr:uid="{8918B2C1-8E48-4AF2-B084-57CE14B52D45}"/>
+    <hyperlink ref="A2" r:id="rId11" xr:uid="{48487E20-5934-4DF8-BB6C-7ABC983828BC}"/>
+    <hyperlink ref="A3" r:id="rId12" xr:uid="{1846E325-B0AD-476A-89FB-0E5E4D745BC0}"/>
+    <hyperlink ref="A70" r:id="rId13" xr:uid="{A27B5F28-3FD7-4896-BE2A-CA82B729B75C}"/>
+    <hyperlink ref="A37" r:id="rId14" xr:uid="{2C370E30-E1CA-41EC-9327-DE3BFB6EE6B4}"/>
+    <hyperlink ref="A49" r:id="rId15" xr:uid="{544923DB-599C-4A73-AE1C-DDD20E91E0DD}"/>
+    <hyperlink ref="A71" r:id="rId16" xr:uid="{406DC2EB-4144-4D80-B68A-C21684893A7C}"/>
+    <hyperlink ref="A50" r:id="rId17" xr:uid="{633440B8-C523-400B-9C35-5B586F99C9F1}"/>
+    <hyperlink ref="A51" r:id="rId18" xr:uid="{118D4420-D924-4C9C-9629-B46D62A9C658}"/>
+    <hyperlink ref="A72" r:id="rId19" xr:uid="{C11C0C14-7C59-42E5-9B06-8A7D34C1EC38}"/>
+    <hyperlink ref="A52" r:id="rId20" xr:uid="{9D7841B6-794C-4615-866E-D17B690DB786}"/>
+    <hyperlink ref="A28" r:id="rId21" xr:uid="{0063B9A8-0196-4F96-938C-93C96941EEE8}"/>
+    <hyperlink ref="A29" r:id="rId22" xr:uid="{863E935B-D0B0-459B-8E74-C4DD241CE4D4}"/>
+    <hyperlink ref="A73" r:id="rId23" xr:uid="{3F5EF6B6-36A7-4F5A-9815-1633ED0A285A}"/>
+    <hyperlink ref="A74" r:id="rId24" xr:uid="{228B3A7B-0BEB-4F36-8FA8-D9DC6852B523}"/>
+    <hyperlink ref="A58" r:id="rId25" xr:uid="{69BF7F1B-1282-4E23-9AE2-5966C64840F5}"/>
+    <hyperlink ref="A75" r:id="rId26" xr:uid="{5347B994-DF5D-4B1E-9CD1-B63B7EBC0A72}"/>
+    <hyperlink ref="A32" r:id="rId27" xr:uid="{F3EE867F-5673-4B11-946B-A550958A1EE3}"/>
+    <hyperlink ref="A53" r:id="rId28" xr:uid="{CF09C1EB-5C93-432C-B488-4F704C0602A4}"/>
+    <hyperlink ref="A38" r:id="rId29" xr:uid="{31F3A28A-41AB-4E44-BC0B-0B83D176068F}"/>
+    <hyperlink ref="A39" r:id="rId30" xr:uid="{023D2F29-7F3C-447D-A11C-5AE94F932B47}"/>
+    <hyperlink ref="A40" r:id="rId31" xr:uid="{3DD5D216-B329-42D3-B451-4F06743FF9F7}"/>
+    <hyperlink ref="A22" r:id="rId32" xr:uid="{10219240-FD10-48D3-973F-3A97821E0C59}"/>
+    <hyperlink ref="A65" r:id="rId33" xr:uid="{CF255FFA-8EC9-4B8A-8E35-06B5A90F8F4C}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{4F28F1F7-2E8E-44AA-9CFA-11205CF67139}"/>
+    <hyperlink ref="A30" r:id="rId35" xr:uid="{79C8FBE6-8031-4175-977E-1F7D2C274586}"/>
+    <hyperlink ref="A31" r:id="rId36" xr:uid="{65512035-0FA1-4D71-A934-3610E250F11A}"/>
+    <hyperlink ref="A33" r:id="rId37" xr:uid="{8F143D6D-0EA6-4EBE-A672-C434033323B1}"/>
+    <hyperlink ref="A10" r:id="rId38" xr:uid="{7323346E-049F-4757-84BD-697F4293B9AC}"/>
+    <hyperlink ref="A11" r:id="rId39" xr:uid="{EF404D57-31BE-4312-825F-4FF10E141844}"/>
+    <hyperlink ref="A12" r:id="rId40" xr:uid="{8B1D5D13-9312-4AAC-A604-8CA2FA3DEA37}"/>
+    <hyperlink ref="A13" r:id="rId41" xr:uid="{B908224A-7DB9-45A6-B4FD-4F3FCBCC3CB1}"/>
+    <hyperlink ref="A14" r:id="rId42" xr:uid="{AB3FC12A-3151-4D0A-8CBC-3F89D853C512}"/>
+    <hyperlink ref="A15" r:id="rId43" xr:uid="{4B5798C7-FD93-4EA6-BBDC-E2E20408BC1E}"/>
+    <hyperlink ref="A16" r:id="rId44" xr:uid="{E660EEAE-D767-43BB-93F1-33FDAAE38805}"/>
+    <hyperlink ref="A17" r:id="rId45" xr:uid="{6C86E83F-1316-42A5-840F-70E10B6CA064}"/>
+    <hyperlink ref="A18" r:id="rId46" xr:uid="{7A78B492-4D14-4936-B1DF-255D71EB7A4A}"/>
+    <hyperlink ref="A76" r:id="rId47" xr:uid="{F791E2A7-4295-4B20-990D-6ECAF49B6C8C}"/>
+    <hyperlink ref="A77" r:id="rId48" xr:uid="{7523FB12-D5CC-44A9-B8EC-FCD40FC74878}"/>
+    <hyperlink ref="A23" r:id="rId49" xr:uid="{5D06CD34-206C-4D7C-92FD-0AFD752BA890}"/>
+    <hyperlink ref="A24" r:id="rId50" xr:uid="{BF3F8ABC-03DE-49BE-AF71-FEAE2A850514}"/>
+    <hyperlink ref="A54" r:id="rId51" xr:uid="{4EC19CF2-322A-4C35-9B24-9760D93A6F7C}"/>
+    <hyperlink ref="A4" r:id="rId52" xr:uid="{F15E5F44-1468-4549-9527-F928B8D7F145}"/>
+    <hyperlink ref="A78" r:id="rId53" xr:uid="{19C4A3B7-2D2B-4A0C-BFFC-EAB784B1F72D}"/>
+    <hyperlink ref="A79" r:id="rId54" xr:uid="{5B049BEC-0341-4234-AD10-EB23261198B7}"/>
+    <hyperlink ref="A80" r:id="rId55" xr:uid="{D903114E-ABC2-4579-93A2-4B5E0185E8AE}"/>
+    <hyperlink ref="A5" r:id="rId56" xr:uid="{DD041C11-26A6-4417-9DDA-EC4E351C5BDA}"/>
+    <hyperlink ref="A81" r:id="rId57" xr:uid="{BEF6E096-9473-47ED-AE67-DF64E0578C5E}"/>
+    <hyperlink ref="A82" r:id="rId58" xr:uid="{D1425DFE-1D3A-4FCF-93FA-35CC3292E381}"/>
+    <hyperlink ref="A41" r:id="rId59" xr:uid="{95578518-299F-46C3-B2E4-D052EA4E62DA}"/>
+    <hyperlink ref="A6" r:id="rId60" xr:uid="{0114BE88-E468-4F32-84CD-1EECC90BD59A}"/>
+    <hyperlink ref="A7" r:id="rId61" xr:uid="{A10A36EC-B81F-4A8B-8D22-F210F48AD924}"/>
+    <hyperlink ref="A8" r:id="rId62" xr:uid="{A05BE7BD-9DE7-4B52-AB12-7059F46E8BA2}"/>
+    <hyperlink ref="A9" r:id="rId63" xr:uid="{773B00AD-1B78-4450-B2DD-A0787A8F8E4A}"/>
+    <hyperlink ref="A42" r:id="rId64" xr:uid="{DCFB5C0A-AF34-483E-B43F-DD41CCA5073A}"/>
+    <hyperlink ref="A44" r:id="rId65" xr:uid="{4B66CF3B-3A68-4687-A7D6-6A7CB9C41EFD}"/>
+    <hyperlink ref="A55" r:id="rId66" xr:uid="{9D193F62-5D24-45F0-B779-E155ADC51522}"/>
+    <hyperlink ref="A56" r:id="rId67" xr:uid="{B2C335A1-402F-445B-9665-83E0DBFACE48}"/>
+    <hyperlink ref="A43" r:id="rId68" xr:uid="{C4A2D608-E500-4082-A468-E24A50E621FD}"/>
+    <hyperlink ref="A25" r:id="rId69" xr:uid="{16EFF725-AD92-458E-A6BE-29B63DCBC538}"/>
+    <hyperlink ref="A59" r:id="rId70" xr:uid="{5D581231-8D79-4879-8AAD-D3EE869B88AA}"/>
+    <hyperlink ref="A60" r:id="rId71" xr:uid="{4929FCFF-209B-4871-A448-56E6C3B3C7A5}"/>
+    <hyperlink ref="A61" r:id="rId72" xr:uid="{46F5FBF8-28F6-4F0D-BC9E-8EB7C5ABB500}"/>
+    <hyperlink ref="A62" r:id="rId73" xr:uid="{C5F927F4-C99F-4D3F-8AB5-004602B51EC9}"/>
+    <hyperlink ref="A63" r:id="rId74" xr:uid="{DBC090E8-FEBA-4FF1-9925-63BF6AD1AEA1}"/>
+    <hyperlink ref="A83" r:id="rId75" xr:uid="{02C4EEA7-99B0-4963-96E5-F2D6A7FD8CA9}"/>
+    <hyperlink ref="A84" r:id="rId76" xr:uid="{7C340E92-E7DF-4429-8E05-C97207697C27}"/>
+    <hyperlink ref="A85" r:id="rId77" xr:uid="{E9CB7BA4-C28E-4351-A751-C0A87ED575DF}"/>
+    <hyperlink ref="A86" r:id="rId78" xr:uid="{29E3B5ED-D99A-4631-B42D-74D5126E4462}"/>
+    <hyperlink ref="A64" r:id="rId79" xr:uid="{D289FE05-047A-4017-9E77-EBA23D1CB002}"/>
+    <hyperlink ref="A57" r:id="rId80" xr:uid="{4897255B-266A-4642-93EE-BF98CD00C5BE}"/>
+    <hyperlink ref="A19" r:id="rId81" xr:uid="{CF845D4C-54F9-4F01-9789-FF26FDF6176A}"/>
+    <hyperlink ref="A20" r:id="rId82" xr:uid="{4E7F105E-4AAD-477A-8CB3-5326CC9841EC}"/>
+    <hyperlink ref="A45" r:id="rId83" xr:uid="{F2362A75-D16E-47D2-A5AD-7515A2F4E51D}"/>
+    <hyperlink ref="A46" r:id="rId84" xr:uid="{EDA637FE-536A-444E-8260-7FE7CD96B429}"/>
+    <hyperlink ref="A34" r:id="rId85" xr:uid="{77122CF8-CC68-4341-BE35-58FDC91E28FF}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{61E87B20-D7BD-42F3-B138-3F0B4C6EFD73}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{4C3B324D-4D61-4D81-82FF-9D03A6D48C14}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{C434049F-F4FA-4339-BF7B-420871D70F1E}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{F29EFDD5-05A3-4F50-8708-DC230322754C}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{2B5A83AE-6035-4425-98BD-3E8070A4DFD9}"/>
+    <hyperlink ref="A117" r:id="rId91" xr:uid="{6C69ABD9-10BC-4E68-A9B1-1A953021A203}"/>
+    <hyperlink ref="A118" r:id="rId92" xr:uid="{1C99D303-8724-423D-BB47-7E832B3239DD}"/>
+    <hyperlink ref="A119" r:id="rId93" xr:uid="{28DE70D7-84DB-465F-9123-5E6207584D71}"/>
+    <hyperlink ref="A120" r:id="rId94" xr:uid="{81D36F1F-A746-4172-B10F-ABEACE3B1C9A}"/>
+    <hyperlink ref="A121" r:id="rId95" xr:uid="{B6A9A34A-E66F-4F96-B033-E658CD86BA16}"/>
+    <hyperlink ref="A122" r:id="rId96" xr:uid="{58DC441E-85A9-4F52-8512-F0C810D90676}"/>
+    <hyperlink ref="A123" r:id="rId97" xr:uid="{A3F73F1B-0436-4991-8BCA-7FF94C157768}"/>
+    <hyperlink ref="A124" r:id="rId98" xr:uid="{EC2A76A0-4CBD-4F93-AB7F-8838DA521C73}"/>
+    <hyperlink ref="A125" r:id="rId99" xr:uid="{6B6FAB71-7A97-4749-863F-F710182F22FA}"/>
+    <hyperlink ref="A126" r:id="rId100" xr:uid="{AF35286B-1454-4F38-93B9-83170CEBA88D}"/>
+    <hyperlink ref="A127" r:id="rId101" xr:uid="{AE57A11C-8167-43E1-AC43-9245E4388183}"/>
+    <hyperlink ref="A128" r:id="rId102" xr:uid="{D7F8074D-3DB6-43BE-A228-93636BC2E879}"/>
+    <hyperlink ref="A129" r:id="rId103" xr:uid="{7BA055CF-7433-48A0-8F5E-1A75FAC26F49}"/>
+    <hyperlink ref="A130" r:id="rId104" xr:uid="{604AC897-B74E-458C-B70A-4537B7114F08}"/>
+    <hyperlink ref="A131" r:id="rId105" xr:uid="{9FBE940C-EBAB-4745-9FF0-DA6A19256CCF}"/>
+    <hyperlink ref="A132" r:id="rId106" xr:uid="{0DCBC6FE-34A7-4C36-894F-FFA9FD56113A}"/>
+    <hyperlink ref="A133" r:id="rId107" xr:uid="{0FAFB73D-016F-4BD0-AB92-07F12B46178A}"/>
+    <hyperlink ref="A134" r:id="rId108" xr:uid="{79B50FB4-4260-4A74-99F8-6381E770DFF2}"/>
+    <hyperlink ref="A135" r:id="rId109" xr:uid="{D82BD07C-73B0-42E9-8FFC-5B068E2ECF22}"/>
+    <hyperlink ref="A136" r:id="rId110" xr:uid="{8807C62B-CCA3-47BD-A56E-AF100143C282}"/>
+    <hyperlink ref="A137" r:id="rId111" xr:uid="{1EF8E1F7-6999-41A6-BA89-4F074EFF4CD5}"/>
+    <hyperlink ref="A138" r:id="rId112" xr:uid="{E0571577-D0BD-4F6E-9BF4-9B4E8F903260}"/>
+    <hyperlink ref="A139" r:id="rId113" xr:uid="{FF57C2FE-5B14-4E10-83C7-0584D0DF18A6}"/>
+    <hyperlink ref="A140" r:id="rId114" xr:uid="{7C493E41-DEC3-4878-A324-DFFAAAE0C1A1}"/>
+    <hyperlink ref="A141" r:id="rId115" xr:uid="{B5A4FC03-C99F-418A-B8D2-2A222D99CB39}"/>
+    <hyperlink ref="A142" r:id="rId116" xr:uid="{A6F0EC81-3952-4B24-9A1A-BEB5F4193683}"/>
+    <hyperlink ref="A143" r:id="rId117" xr:uid="{BFEF77A7-BC99-4596-B78E-D5CA54F1F0DD}"/>
+    <hyperlink ref="A144" r:id="rId118" xr:uid="{AE236B37-34C4-4907-83E3-D31918569A08}"/>
+    <hyperlink ref="A145" r:id="rId119" xr:uid="{1EF417AB-E20E-4511-9033-9F3B3A040A83}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Apps/estoque_mercado_livre/Data/Urls.xlsx
+++ b/Apps/estoque_mercado_livre/Data/Urls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\FIVE-C\Streamlit\Apps\estoque_mercado_livre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD6DE2E-097A-4612-A6A4-38955BB9360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470F5C3D-9E0E-4085-9314-4D0998564F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="2415" windowWidth="28800" windowHeight="11385" xr2:uid="{CE9DE5A0-1E27-407E-8DBD-061DE87DE0A8}"/>
+    <workbookView xWindow="2070" yWindow="1875" windowWidth="25080" windowHeight="11385" xr2:uid="{CE9DE5A0-1E27-407E-8DBD-061DE87DE0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>https://produto.mercadolivre.com.br/MLB-1685297927-gopro-hero-9-black-camera-original-nfe-_JM</t>
   </si>
@@ -469,6 +469,72 @@
   </si>
   <si>
     <t>https://produto.mercadolivre.com.br/MLB-1897149599-cmera-gopro-hero-9-black-camiseta-original-gopro-nf-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2087546402-cmera-gopro-hero10-accesorios-53k-ntscpal-preta-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2087513455-cmera-gopro-hero8-4k-chdhx-801-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2087526495-cmera-gopro-hero8-4k-chdhx-801-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2087527074-cmera-gopro-hero9-5k-chdhx-901-ntscpal-preta-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2087503198-cmera-gopro-max-56k-chdhz-201-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2087509389-cmera-gopro-max-56k-chdhz-201-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2049088117-gopro-hero-10-black-23mp-53k60-wifi-garantia-brasil-nfe-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2049100964-gopro-hero-10-black-23mp-53k60-wifi-garantia-brasil-nfe-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2063248103-cmera-gopro-hero-10-black-special-bundle-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2063255030-cmera-gopro-hero-10-black-special-bundle-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2063268235-cmera-gopro-hero-10-black-special-bundle-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2063438996-cmera-gopro-hero-10-black-special-bundle-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2064351272-cmera-gopro-hero-10-black-53-k-23-mp-com-nf-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1684675313-gopro-hero-9-black-20mp-5k30-loja-oficial-gopro-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1857163323-gopro-hero-9-black-20mp-5k30-pronta-entrega-lacrada-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1874252736-cmera-gopro-max-56k-chdhz-201-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1961130764-cmera-gopro-max-360-56k-166mp-prova-dagua-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1961130809-cmera-gopro-max-360-56k-166mp-prova-dagua-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1961132614-cmera-gopro-max-360-56k-166mp-prova-dagua-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1961136578-cmera-gopro-max-360-56k-166mp-prova-dagua-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1904014128-cmera-gopro-max-56k-chdhz-201-ntscpal-black-_JM</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2136799273-cmera-gopro-max-56k-chdhz-201-ntscpal-black-_JM</t>
   </si>
 </sst>
 </file>
@@ -567,27 +633,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -928,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD55D8E-EAA2-4C36-95CE-88C48AA10AED}">
-  <dimension ref="A1:A145"/>
+  <dimension ref="A1:A167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="O124" sqref="O124"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,11 +1707,121 @@
         <v>144</v>
       </c>
     </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A145">
+  <conditionalFormatting sqref="A2:A167">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A90">
